--- a/data/processed/ci_10.xlsx
+++ b/data/processed/ci_10.xlsx
@@ -451,42 +451,42 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Métrica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>AVG</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -521,11 +521,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E2" t="n">
-        <v>67</v>
       </c>
       <c r="F2" t="n">
         <v>67</v>
@@ -542,10 +544,8 @@
       <c r="J2" t="n">
         <v>67</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K2" t="n">
+        <v>67</v>
       </c>
       <c r="L2" t="n">
         <v>67</v>
@@ -573,11 +573,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
-      </c>
-      <c r="E3" t="n">
-        <v>5000</v>
       </c>
       <c r="F3" t="n">
         <v>5000</v>
@@ -594,10 +596,8 @@
       <c r="J3" t="n">
         <v>5000</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K3" t="n">
+        <v>5000</v>
       </c>
       <c r="L3" t="n">
         <v>5000</v>
@@ -625,12 +625,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -646,10 +648,8 @@
       <c r="J4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -675,11 +675,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
@@ -696,10 +698,8 @@
       <c r="J5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K5" t="n">
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>4</v>
@@ -727,12 +727,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>200</v>
-      </c>
       <c r="F6" t="n">
         <v>200</v>
       </c>
@@ -748,10 +750,8 @@
       <c r="J6" t="n">
         <v>200</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K6" t="n">
+        <v>200</v>
       </c>
       <c r="L6" t="n">
         <v>200</v>
@@ -779,11 +779,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E7" t="n">
-        <v>10000</v>
       </c>
       <c r="F7" t="n">
         <v>10000</v>
@@ -800,10 +802,8 @@
       <c r="J7" t="n">
         <v>10000</v>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K7" t="n">
+        <v>10000</v>
       </c>
       <c r="L7" t="n">
         <v>10000</v>
@@ -831,12 +831,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
@@ -852,10 +854,8 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -881,11 +881,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E9" t="n">
-        <v>70</v>
       </c>
       <c r="F9" t="n">
         <v>70</v>
@@ -902,10 +904,8 @@
       <c r="J9" t="n">
         <v>70</v>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K9" t="n">
+        <v>70</v>
       </c>
       <c r="L9" t="n">
         <v>70</v>
@@ -933,11 +933,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
-      </c>
-      <c r="E10" t="n">
-        <v>353</v>
       </c>
       <c r="F10" t="n">
         <v>353</v>
@@ -954,10 +956,8 @@
       <c r="J10" t="n">
         <v>353</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K10" t="n">
+        <v>353</v>
       </c>
       <c r="L10" t="n">
         <v>353</v>
@@ -985,11 +985,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>353</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>353</v>
@@ -1006,10 +1008,8 @@
       <c r="J11" t="n">
         <v>353</v>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K11" t="n">
+        <v>353</v>
       </c>
       <c r="L11" t="n">
         <v>353</v>
@@ -1037,11 +1037,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Internet</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>0.2</v>
@@ -1058,10 +1060,8 @@
       <c r="J12" t="n">
         <v>0.2</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K12" t="n">
+        <v>0.2</v>
       </c>
       <c r="L12" t="n">
         <v>0.2</v>
@@ -1089,11 +1089,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E13" t="n">
-        <v>48</v>
       </c>
       <c r="F13" t="n">
         <v>48</v>
@@ -1110,10 +1112,8 @@
       <c r="J13" t="n">
         <v>48</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K13" t="n">
+        <v>48</v>
       </c>
       <c r="L13" t="n">
         <v>48</v>
@@ -1141,11 +1141,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
@@ -1162,10 +1164,8 @@
       <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K14" t="n">
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
@@ -1193,12 +1193,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>200</v>
-      </c>
       <c r="F15" t="n">
         <v>200</v>
       </c>
@@ -1214,10 +1216,8 @@
       <c r="J15" t="n">
         <v>200</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K15" t="n">
+        <v>200</v>
       </c>
       <c r="L15" t="n">
         <v>200</v>
@@ -1245,11 +1245,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E16" t="n">
-        <v>10000</v>
       </c>
       <c r="F16" t="n">
         <v>10000</v>
@@ -1266,10 +1268,8 @@
       <c r="J16" t="n">
         <v>10000</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K16" t="n">
+        <v>10000</v>
       </c>
       <c r="L16" t="n">
         <v>10000</v>
@@ -1297,11 +1297,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5</v>
       </c>
       <c r="F17" t="n">
         <v>5</v>
@@ -1318,10 +1320,8 @@
       <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K17" t="n">
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
@@ -1349,11 +1349,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
-      </c>
-      <c r="E18" t="n">
-        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>3</v>
@@ -1370,10 +1372,8 @@
       <c r="J18" t="n">
         <v>3</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K18" t="n">
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>3</v>
@@ -1401,11 +1401,13 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
-      </c>
-      <c r="E19" t="n">
-        <v>4000</v>
       </c>
       <c r="F19" t="n">
         <v>4000</v>
@@ -1422,10 +1424,8 @@
       <c r="J19" t="n">
         <v>4000</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K19" t="n">
+        <v>4000</v>
       </c>
       <c r="L19" t="n">
         <v>4000</v>
@@ -1453,11 +1453,13 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Outlets</t>
         </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1000</v>
       </c>
       <c r="F20" t="n">
         <v>1000</v>
@@ -1474,10 +1476,8 @@
       <c r="J20" t="n">
         <v>1000</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K20" t="n">
+        <v>1000</v>
       </c>
       <c r="L20" t="n">
         <v>1000</v>
@@ -1505,12 +1505,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
@@ -1526,10 +1528,8 @@
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1555,11 +1555,13 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E22" t="n">
-        <v>70</v>
       </c>
       <c r="F22" t="n">
         <v>70</v>
@@ -1576,10 +1578,8 @@
       <c r="J22" t="n">
         <v>70</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K22" t="n">
+        <v>70</v>
       </c>
       <c r="L22" t="n">
         <v>70</v>
@@ -1607,11 +1607,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
-      </c>
-      <c r="E23" t="n">
-        <v>1997</v>
       </c>
       <c r="F23" t="n">
         <v>1997</v>
@@ -1628,10 +1630,8 @@
       <c r="J23" t="n">
         <v>1997</v>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K23" t="n">
+        <v>1997</v>
       </c>
       <c r="L23" t="n">
         <v>1997</v>
@@ -1659,12 +1659,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
@@ -1680,10 +1682,8 @@
       <c r="J24" t="n">
         <v>0</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1709,11 +1709,13 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>1997</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+        </is>
       </c>
       <c r="F25" t="n">
         <v>1997</v>
@@ -1730,10 +1732,8 @@
       <c r="J25" t="n">
         <v>1997</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K25" t="n">
+        <v>1997</v>
       </c>
       <c r="L25" t="n">
         <v>1997</v>
@@ -1761,11 +1761,13 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+        </is>
       </c>
       <c r="F26" t="n">
         <v>0.2</v>
@@ -1782,10 +1784,8 @@
       <c r="J26" t="n">
         <v>0.2</v>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K26" t="n">
+        <v>0.2</v>
       </c>
       <c r="L26" t="n">
         <v>0.2</v>
@@ -1813,11 +1813,13 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Offer Price (max = $40.00)</t>
         </is>
-      </c>
-      <c r="E27" t="n">
-        <v>32</v>
       </c>
       <c r="F27" t="n">
         <v>32</v>
@@ -1834,10 +1836,8 @@
       <c r="J27" t="n">
         <v>32</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K27" t="n">
+        <v>32</v>
       </c>
       <c r="L27" t="n">
         <v>32</v>
@@ -1865,11 +1865,13 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
         </is>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>3</v>
@@ -1886,10 +1888,8 @@
       <c r="J28" t="n">
         <v>3</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K28" t="n">
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>3</v>
@@ -1917,12 +1917,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Offered (000s)</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>200</v>
-      </c>
       <c r="F29" t="n">
         <v>200</v>
       </c>
@@ -1938,10 +1940,8 @@
       <c r="J29" t="n">
         <v>200</v>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K29" t="n">
+        <v>200</v>
       </c>
       <c r="L29" t="n">
         <v>200</v>
@@ -1969,11 +1969,13 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>200</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>200</v>
@@ -1990,10 +1992,8 @@
       <c r="J30" t="n">
         <v>200</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K30" t="n">
+        <v>200</v>
       </c>
       <c r="L30" t="n">
         <v>200</v>
@@ -2021,11 +2021,13 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Privada</t>
+        </is>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
@@ -2042,10 +2044,8 @@
       <c r="J31" t="n">
         <v>0.2</v>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K31" t="n">
+        <v>0.2</v>
       </c>
       <c r="L31" t="n">
         <v>0.2</v>
@@ -2073,11 +2073,13 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E32" t="n">
-        <v>72</v>
       </c>
       <c r="F32" t="n">
         <v>72</v>
@@ -2094,10 +2096,8 @@
       <c r="J32" t="n">
         <v>72</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K32" t="n">
+        <v>72</v>
       </c>
       <c r="L32" t="n">
         <v>72</v>
@@ -2125,11 +2125,13 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
-      </c>
-      <c r="E33" t="n">
-        <v>4500</v>
       </c>
       <c r="F33" t="n">
         <v>4500</v>
@@ -2146,10 +2148,8 @@
       <c r="J33" t="n">
         <v>4500</v>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K33" t="n">
+        <v>4500</v>
       </c>
       <c r="L33" t="n">
         <v>4500</v>
@@ -2177,12 +2177,14 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
@@ -2198,10 +2200,8 @@
       <c r="J34" t="n">
         <v>0</v>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K34" t="n">
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2227,11 +2227,13 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E35" t="n">
-        <v>4</v>
       </c>
       <c r="F35" t="n">
         <v>4</v>
@@ -2248,10 +2250,8 @@
       <c r="J35" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K35" t="n">
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>4</v>
@@ -2279,12 +2279,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>200</v>
-      </c>
       <c r="F36" t="n">
         <v>200</v>
       </c>
@@ -2300,10 +2302,8 @@
       <c r="J36" t="n">
         <v>200</v>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K36" t="n">
+        <v>200</v>
       </c>
       <c r="L36" t="n">
         <v>200</v>
@@ -2331,11 +2331,13 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E37" t="n">
-        <v>9000</v>
       </c>
       <c r="F37" t="n">
         <v>9000</v>
@@ -2352,10 +2354,8 @@
       <c r="J37" t="n">
         <v>9000</v>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K37" t="n">
+        <v>9000</v>
       </c>
       <c r="L37" t="n">
         <v>9000</v>
@@ -2383,12 +2383,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -2404,10 +2406,8 @@
       <c r="J38" t="n">
         <v>0</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K38" t="n">
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -2433,11 +2433,13 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E39" t="n">
-        <v>70</v>
       </c>
       <c r="F39" t="n">
         <v>70</v>
@@ -2454,10 +2456,8 @@
       <c r="J39" t="n">
         <v>70</v>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K39" t="n">
+        <v>70</v>
       </c>
       <c r="L39" t="n">
         <v>70</v>
@@ -2485,11 +2485,13 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
-      </c>
-      <c r="E40" t="n">
-        <v>300</v>
       </c>
       <c r="F40" t="n">
         <v>300</v>
@@ -2506,10 +2508,8 @@
       <c r="J40" t="n">
         <v>300</v>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K40" t="n">
+        <v>300</v>
       </c>
       <c r="L40" t="n">
         <v>300</v>
@@ -2537,11 +2537,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>300</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+        </is>
       </c>
       <c r="F41" t="n">
         <v>300</v>
@@ -2558,10 +2560,8 @@
       <c r="J41" t="n">
         <v>300</v>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K41" t="n">
+        <v>300</v>
       </c>
       <c r="L41" t="n">
         <v>300</v>
@@ -2589,11 +2589,13 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Internet</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>0.2</v>
@@ -2610,10 +2612,8 @@
       <c r="J42" t="n">
         <v>0.2</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K42" t="n">
+        <v>0.2</v>
       </c>
       <c r="L42" t="n">
         <v>0.2</v>
@@ -2641,11 +2641,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E43" t="n">
-        <v>53</v>
       </c>
       <c r="F43" t="n">
         <v>53</v>
@@ -2662,10 +2664,8 @@
       <c r="J43" t="n">
         <v>53</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K43" t="n">
+        <v>53</v>
       </c>
       <c r="L43" t="n">
         <v>53</v>
@@ -2693,11 +2693,13 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E44" t="n">
-        <v>4</v>
       </c>
       <c r="F44" t="n">
         <v>4</v>
@@ -2714,10 +2716,8 @@
       <c r="J44" t="n">
         <v>4</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K44" t="n">
+        <v>4</v>
       </c>
       <c r="L44" t="n">
         <v>4</v>
@@ -2745,12 +2745,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>200</v>
-      </c>
       <c r="F45" t="n">
         <v>200</v>
       </c>
@@ -2766,10 +2768,8 @@
       <c r="J45" t="n">
         <v>200</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K45" t="n">
+        <v>200</v>
       </c>
       <c r="L45" t="n">
         <v>200</v>
@@ -2797,11 +2797,13 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E46" t="n">
-        <v>9000</v>
       </c>
       <c r="F46" t="n">
         <v>9000</v>
@@ -2818,10 +2820,8 @@
       <c r="J46" t="n">
         <v>9000</v>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K46" t="n">
+        <v>9000</v>
       </c>
       <c r="L46" t="n">
         <v>9000</v>
@@ -2849,11 +2849,13 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
-      </c>
-      <c r="E47" t="n">
-        <v>5</v>
       </c>
       <c r="F47" t="n">
         <v>5</v>
@@ -2870,10 +2872,8 @@
       <c r="J47" t="n">
         <v>5</v>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K47" t="n">
+        <v>5</v>
       </c>
       <c r="L47" t="n">
         <v>5</v>
@@ -2901,11 +2901,13 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
       </c>
       <c r="F48" t="n">
         <v>3</v>
@@ -2922,10 +2924,8 @@
       <c r="J48" t="n">
         <v>3</v>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K48" t="n">
+        <v>3</v>
       </c>
       <c r="L48" t="n">
         <v>3</v>
@@ -2953,11 +2953,13 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
-      </c>
-      <c r="E49" t="n">
-        <v>4000</v>
       </c>
       <c r="F49" t="n">
         <v>4000</v>
@@ -2974,10 +2976,8 @@
       <c r="J49" t="n">
         <v>4000</v>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K49" t="n">
+        <v>4000</v>
       </c>
       <c r="L49" t="n">
         <v>4000</v>
@@ -3005,11 +3005,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Outlets</t>
         </is>
-      </c>
-      <c r="E50" t="n">
-        <v>1000</v>
       </c>
       <c r="F50" t="n">
         <v>1000</v>
@@ -3026,10 +3028,8 @@
       <c r="J50" t="n">
         <v>1000</v>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K50" t="n">
+        <v>1000</v>
       </c>
       <c r="L50" t="n">
         <v>1000</v>
@@ -3057,12 +3057,14 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
@@ -3078,10 +3080,8 @@
       <c r="J51" t="n">
         <v>0</v>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K51" t="n">
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -3107,11 +3107,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E52" t="n">
-        <v>70</v>
       </c>
       <c r="F52" t="n">
         <v>70</v>
@@ -3128,10 +3130,8 @@
       <c r="J52" t="n">
         <v>70</v>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K52" t="n">
+        <v>70</v>
       </c>
       <c r="L52" t="n">
         <v>70</v>
@@ -3159,11 +3159,13 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
-      </c>
-      <c r="E53" t="n">
-        <v>1700</v>
       </c>
       <c r="F53" t="n">
         <v>1700</v>
@@ -3180,10 +3182,8 @@
       <c r="J53" t="n">
         <v>1700</v>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K53" t="n">
+        <v>1700</v>
       </c>
       <c r="L53" t="n">
         <v>1700</v>
@@ -3211,12 +3211,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
@@ -3232,10 +3234,8 @@
       <c r="J54" t="n">
         <v>0</v>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K54" t="n">
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
@@ -3261,11 +3261,13 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>1700</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+        </is>
       </c>
       <c r="F55" t="n">
         <v>1700</v>
@@ -3282,10 +3284,8 @@
       <c r="J55" t="n">
         <v>1700</v>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K55" t="n">
+        <v>1700</v>
       </c>
       <c r="L55" t="n">
         <v>1700</v>
@@ -3313,11 +3313,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+        </is>
       </c>
       <c r="F56" t="n">
         <v>0.2</v>
@@ -3334,10 +3336,8 @@
       <c r="J56" t="n">
         <v>0.2</v>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K56" t="n">
+        <v>0.2</v>
       </c>
       <c r="L56" t="n">
         <v>0.2</v>
@@ -3365,11 +3365,13 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Offer Price (max = $40.00)</t>
         </is>
-      </c>
-      <c r="E57" t="n">
-        <v>37</v>
       </c>
       <c r="F57" t="n">
         <v>37</v>
@@ -3386,10 +3388,8 @@
       <c r="J57" t="n">
         <v>37</v>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K57" t="n">
+        <v>37</v>
       </c>
       <c r="L57" t="n">
         <v>37</v>
@@ -3417,11 +3417,13 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
         </is>
-      </c>
-      <c r="E58" t="n">
-        <v>3</v>
       </c>
       <c r="F58" t="n">
         <v>3</v>
@@ -3438,10 +3440,8 @@
       <c r="J58" t="n">
         <v>3</v>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K58" t="n">
+        <v>3</v>
       </c>
       <c r="L58" t="n">
         <v>3</v>
@@ -3469,12 +3469,14 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Offered (000s)</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>200</v>
-      </c>
       <c r="F59" t="n">
         <v>200</v>
       </c>
@@ -3490,10 +3492,8 @@
       <c r="J59" t="n">
         <v>200</v>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K59" t="n">
+        <v>200</v>
       </c>
       <c r="L59" t="n">
         <v>200</v>
@@ -3521,11 +3521,13 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>200</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+        </is>
       </c>
       <c r="F60" t="n">
         <v>200</v>
@@ -3542,10 +3544,8 @@
       <c r="J60" t="n">
         <v>200</v>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K60" t="n">
+        <v>200</v>
       </c>
       <c r="L60" t="n">
         <v>200</v>
@@ -3573,11 +3573,13 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Privada</t>
+        </is>
       </c>
       <c r="F61" t="n">
         <v>0.2</v>
@@ -3594,10 +3596,8 @@
       <c r="J61" t="n">
         <v>0.2</v>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K61" t="n">
+        <v>0.2</v>
       </c>
       <c r="L61" t="n">
         <v>0.2</v>
@@ -3625,11 +3625,13 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E62" t="n">
-        <v>67</v>
       </c>
       <c r="F62" t="n">
         <v>67</v>
@@ -3646,10 +3648,8 @@
       <c r="J62" t="n">
         <v>67</v>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K62" t="n">
+        <v>67</v>
       </c>
       <c r="L62" t="n">
         <v>67</v>
@@ -3677,11 +3677,13 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
-      </c>
-      <c r="E63" t="n">
-        <v>4000</v>
       </c>
       <c r="F63" t="n">
         <v>4000</v>
@@ -3698,10 +3700,8 @@
       <c r="J63" t="n">
         <v>4000</v>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K63" t="n">
+        <v>4000</v>
       </c>
       <c r="L63" t="n">
         <v>4000</v>
@@ -3729,12 +3729,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
@@ -3750,10 +3752,8 @@
       <c r="J64" t="n">
         <v>0</v>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K64" t="n">
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -3779,11 +3779,13 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E65" t="n">
-        <v>4</v>
       </c>
       <c r="F65" t="n">
         <v>4</v>
@@ -3800,10 +3802,8 @@
       <c r="J65" t="n">
         <v>4</v>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K65" t="n">
+        <v>4</v>
       </c>
       <c r="L65" t="n">
         <v>4</v>
@@ -3831,12 +3831,14 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>200</v>
-      </c>
       <c r="F66" t="n">
         <v>200</v>
       </c>
@@ -3852,10 +3854,8 @@
       <c r="J66" t="n">
         <v>200</v>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K66" t="n">
+        <v>200</v>
       </c>
       <c r="L66" t="n">
         <v>200</v>
@@ -3883,11 +3883,13 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E67" t="n">
-        <v>8000</v>
       </c>
       <c r="F67" t="n">
         <v>8000</v>
@@ -3904,10 +3906,8 @@
       <c r="J67" t="n">
         <v>8000</v>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K67" t="n">
+        <v>8000</v>
       </c>
       <c r="L67" t="n">
         <v>8000</v>
@@ -3935,12 +3935,14 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
@@ -3956,10 +3958,8 @@
       <c r="J68" t="n">
         <v>0</v>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K68" t="n">
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -3985,11 +3985,13 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E69" t="n">
-        <v>70</v>
       </c>
       <c r="F69" t="n">
         <v>70</v>
@@ -4006,10 +4008,8 @@
       <c r="J69" t="n">
         <v>70</v>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K69" t="n">
+        <v>70</v>
       </c>
       <c r="L69" t="n">
         <v>70</v>
@@ -4037,11 +4037,13 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
-      </c>
-      <c r="E70" t="n">
-        <v>225</v>
       </c>
       <c r="F70" t="n">
         <v>225</v>
@@ -4058,10 +4060,8 @@
       <c r="J70" t="n">
         <v>225</v>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K70" t="n">
+        <v>225</v>
       </c>
       <c r="L70" t="n">
         <v>225</v>
@@ -4089,11 +4089,13 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>225</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+        </is>
       </c>
       <c r="F71" t="n">
         <v>225</v>
@@ -4110,10 +4112,8 @@
       <c r="J71" t="n">
         <v>225</v>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K71" t="n">
+        <v>225</v>
       </c>
       <c r="L71" t="n">
         <v>225</v>
@@ -4141,11 +4141,13 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Internet</t>
+        </is>
       </c>
       <c r="F72" t="n">
         <v>0.2</v>
@@ -4162,10 +4164,8 @@
       <c r="J72" t="n">
         <v>0.2</v>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K72" t="n">
+        <v>0.2</v>
       </c>
       <c r="L72" t="n">
         <v>0.2</v>
@@ -4193,11 +4193,13 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E73" t="n">
-        <v>48</v>
       </c>
       <c r="F73" t="n">
         <v>48</v>
@@ -4214,10 +4216,8 @@
       <c r="J73" t="n">
         <v>48</v>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K73" t="n">
+        <v>48</v>
       </c>
       <c r="L73" t="n">
         <v>48</v>
@@ -4245,11 +4245,13 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E74" t="n">
-        <v>4</v>
       </c>
       <c r="F74" t="n">
         <v>4</v>
@@ -4266,10 +4268,8 @@
       <c r="J74" t="n">
         <v>4</v>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K74" t="n">
+        <v>4</v>
       </c>
       <c r="L74" t="n">
         <v>4</v>
@@ -4297,12 +4297,14 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>200</v>
-      </c>
       <c r="F75" t="n">
         <v>200</v>
       </c>
@@ -4318,10 +4320,8 @@
       <c r="J75" t="n">
         <v>200</v>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K75" t="n">
+        <v>200</v>
       </c>
       <c r="L75" t="n">
         <v>200</v>
@@ -4349,11 +4349,13 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E76" t="n">
-        <v>8000</v>
       </c>
       <c r="F76" t="n">
         <v>8000</v>
@@ -4370,10 +4372,8 @@
       <c r="J76" t="n">
         <v>8000</v>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K76" t="n">
+        <v>8000</v>
       </c>
       <c r="L76" t="n">
         <v>8000</v>
@@ -4401,11 +4401,13 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
-      </c>
-      <c r="E77" t="n">
-        <v>5</v>
       </c>
       <c r="F77" t="n">
         <v>5</v>
@@ -4422,10 +4424,8 @@
       <c r="J77" t="n">
         <v>5</v>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K77" t="n">
+        <v>5</v>
       </c>
       <c r="L77" t="n">
         <v>5</v>
@@ -4453,11 +4453,13 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
-      </c>
-      <c r="E78" t="n">
-        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>3</v>
@@ -4474,10 +4476,8 @@
       <c r="J78" t="n">
         <v>3</v>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K78" t="n">
+        <v>3</v>
       </c>
       <c r="L78" t="n">
         <v>3</v>
@@ -4505,11 +4505,13 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
-      </c>
-      <c r="E79" t="n">
-        <v>2750</v>
       </c>
       <c r="F79" t="n">
         <v>2750</v>
@@ -4526,10 +4528,8 @@
       <c r="J79" t="n">
         <v>2750</v>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K79" t="n">
+        <v>2750</v>
       </c>
       <c r="L79" t="n">
         <v>2750</v>
@@ -4557,11 +4557,13 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Outlets</t>
         </is>
-      </c>
-      <c r="E80" t="n">
-        <v>700</v>
       </c>
       <c r="F80" t="n">
         <v>700</v>
@@ -4578,10 +4580,8 @@
       <c r="J80" t="n">
         <v>700</v>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K80" t="n">
+        <v>700</v>
       </c>
       <c r="L80" t="n">
         <v>700</v>
@@ -4609,12 +4609,14 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
       <c r="F81" t="n">
         <v>0</v>
       </c>
@@ -4630,10 +4632,8 @@
       <c r="J81" t="n">
         <v>0</v>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K81" t="n">
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4659,11 +4659,13 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E82" t="n">
-        <v>70</v>
       </c>
       <c r="F82" t="n">
         <v>70</v>
@@ -4680,10 +4682,8 @@
       <c r="J82" t="n">
         <v>70</v>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K82" t="n">
+        <v>70</v>
       </c>
       <c r="L82" t="n">
         <v>70</v>
@@ -4711,11 +4711,13 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
-      </c>
-      <c r="E83" t="n">
-        <v>1275</v>
       </c>
       <c r="F83" t="n">
         <v>1275</v>
@@ -4732,10 +4734,8 @@
       <c r="J83" t="n">
         <v>1275</v>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K83" t="n">
+        <v>1275</v>
       </c>
       <c r="L83" t="n">
         <v>1275</v>
@@ -4763,12 +4763,14 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
           <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
-      <c r="E84" t="n">
-        <v>0</v>
-      </c>
       <c r="F84" t="n">
         <v>0</v>
       </c>
@@ -4784,10 +4786,8 @@
       <c r="J84" t="n">
         <v>0</v>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K84" t="n">
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>0</v>
@@ -4813,11 +4813,13 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>1275</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+        </is>
       </c>
       <c r="F85" t="n">
         <v>1275</v>
@@ -4834,10 +4836,8 @@
       <c r="J85" t="n">
         <v>1275</v>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K85" t="n">
+        <v>1275</v>
       </c>
       <c r="L85" t="n">
         <v>1275</v>
@@ -4865,11 +4865,13 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+        </is>
       </c>
       <c r="F86" t="n">
         <v>0.2</v>
@@ -4886,10 +4888,8 @@
       <c r="J86" t="n">
         <v>0.2</v>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K86" t="n">
+        <v>0.2</v>
       </c>
       <c r="L86" t="n">
         <v>0.2</v>
@@ -4917,11 +4917,13 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Offer Price (max = $40.00)</t>
         </is>
-      </c>
-      <c r="E87" t="n">
-        <v>32</v>
       </c>
       <c r="F87" t="n">
         <v>32</v>
@@ -4938,10 +4940,8 @@
       <c r="J87" t="n">
         <v>32</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K87" t="n">
+        <v>32</v>
       </c>
       <c r="L87" t="n">
         <v>32</v>
@@ -4969,11 +4969,13 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
         </is>
-      </c>
-      <c r="E88" t="n">
-        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>3</v>
@@ -4990,10 +4992,8 @@
       <c r="J88" t="n">
         <v>3</v>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K88" t="n">
+        <v>3</v>
       </c>
       <c r="L88" t="n">
         <v>3</v>
@@ -5021,12 +5021,14 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Offered (000s)</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>200</v>
-      </c>
       <c r="F89" t="n">
         <v>200</v>
       </c>
@@ -5042,10 +5044,8 @@
       <c r="J89" t="n">
         <v>200</v>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K89" t="n">
+        <v>200</v>
       </c>
       <c r="L89" t="n">
         <v>200</v>
@@ -5073,11 +5073,13 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E90" t="n">
-        <v>200</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+        </is>
       </c>
       <c r="F90" t="n">
         <v>200</v>
@@ -5094,10 +5096,8 @@
       <c r="J90" t="n">
         <v>200</v>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K90" t="n">
+        <v>200</v>
       </c>
       <c r="L90" t="n">
         <v>200</v>
@@ -5125,11 +5125,13 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E91" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Privada</t>
+        </is>
       </c>
       <c r="F91" t="n">
         <v>0.2</v>
@@ -5146,10 +5148,8 @@
       <c r="J91" t="n">
         <v>0.2</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K91" t="n">
+        <v>0.2</v>
       </c>
       <c r="L91" t="n">
         <v>0.2</v>
@@ -5177,11 +5177,13 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E92" t="n">
-        <v>72</v>
       </c>
       <c r="F92" t="n">
         <v>72</v>
@@ -5198,10 +5200,8 @@
       <c r="J92" t="n">
         <v>72</v>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K92" t="n">
+        <v>72</v>
       </c>
       <c r="L92" t="n">
         <v>72</v>
@@ -5229,11 +5229,13 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
-      </c>
-      <c r="E93" t="n">
-        <v>4000</v>
       </c>
       <c r="F93" t="n">
         <v>4000</v>
@@ -5250,10 +5252,8 @@
       <c r="J93" t="n">
         <v>4000</v>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K93" t="n">
+        <v>4000</v>
       </c>
       <c r="L93" t="n">
         <v>4000</v>
@@ -5281,12 +5281,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
-      <c r="E94" t="n">
-        <v>0</v>
-      </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
@@ -5302,10 +5304,8 @@
       <c r="J94" t="n">
         <v>0</v>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K94" t="n">
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -5331,11 +5331,13 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E95" t="n">
-        <v>4</v>
       </c>
       <c r="F95" t="n">
         <v>4</v>
@@ -5352,10 +5354,8 @@
       <c r="J95" t="n">
         <v>4</v>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K95" t="n">
+        <v>4</v>
       </c>
       <c r="L95" t="n">
         <v>4</v>
@@ -5383,12 +5383,14 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E96" t="n">
-        <v>200</v>
-      </c>
       <c r="F96" t="n">
         <v>200</v>
       </c>
@@ -5404,10 +5406,8 @@
       <c r="J96" t="n">
         <v>200</v>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K96" t="n">
+        <v>200</v>
       </c>
       <c r="L96" t="n">
         <v>200</v>
@@ -5435,11 +5435,13 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E97" t="n">
-        <v>7500</v>
       </c>
       <c r="F97" t="n">
         <v>7500</v>
@@ -5456,10 +5458,8 @@
       <c r="J97" t="n">
         <v>7500</v>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K97" t="n">
+        <v>7500</v>
       </c>
       <c r="L97" t="n">
         <v>7500</v>
@@ -5487,12 +5487,14 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E98" t="n">
-        <v>0</v>
-      </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
@@ -5508,10 +5510,8 @@
       <c r="J98" t="n">
         <v>0</v>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K98" t="n">
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -5537,11 +5537,13 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E99" t="n">
-        <v>70</v>
       </c>
       <c r="F99" t="n">
         <v>70</v>
@@ -5558,10 +5560,8 @@
       <c r="J99" t="n">
         <v>70</v>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K99" t="n">
+        <v>70</v>
       </c>
       <c r="L99" t="n">
         <v>70</v>
@@ -5589,11 +5589,13 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
-      </c>
-      <c r="E100" t="n">
-        <v>225</v>
       </c>
       <c r="F100" t="n">
         <v>225</v>
@@ -5610,10 +5612,8 @@
       <c r="J100" t="n">
         <v>225</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K100" t="n">
+        <v>225</v>
       </c>
       <c r="L100" t="n">
         <v>225</v>
@@ -5641,11 +5641,13 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>225</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+        </is>
       </c>
       <c r="F101" t="n">
         <v>225</v>
@@ -5662,10 +5664,8 @@
       <c r="J101" t="n">
         <v>225</v>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K101" t="n">
+        <v>225</v>
       </c>
       <c r="L101" t="n">
         <v>225</v>
@@ -5693,11 +5693,13 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Internet</t>
+        </is>
       </c>
       <c r="F102" t="n">
         <v>0.2</v>
@@ -5714,10 +5716,8 @@
       <c r="J102" t="n">
         <v>0.2</v>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K102" t="n">
+        <v>0.2</v>
       </c>
       <c r="L102" t="n">
         <v>0.2</v>
@@ -5745,11 +5745,13 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
-      </c>
-      <c r="E103" t="n">
-        <v>53</v>
       </c>
       <c r="F103" t="n">
         <v>53</v>
@@ -5766,10 +5768,8 @@
       <c r="J103" t="n">
         <v>53</v>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K103" t="n">
+        <v>53</v>
       </c>
       <c r="L103" t="n">
         <v>53</v>
@@ -5797,11 +5797,13 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
-      </c>
-      <c r="E104" t="n">
-        <v>4</v>
       </c>
       <c r="F104" t="n">
         <v>4</v>
@@ -5818,10 +5820,8 @@
       <c r="J104" t="n">
         <v>4</v>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K104" t="n">
+        <v>4</v>
       </c>
       <c r="L104" t="n">
         <v>4</v>
@@ -5849,12 +5849,14 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>200</v>
-      </c>
       <c r="F105" t="n">
         <v>200</v>
       </c>
@@ -5870,10 +5872,8 @@
       <c r="J105" t="n">
         <v>200</v>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K105" t="n">
+        <v>200</v>
       </c>
       <c r="L105" t="n">
         <v>200</v>
@@ -5901,11 +5901,13 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
-      </c>
-      <c r="E106" t="n">
-        <v>7500</v>
       </c>
       <c r="F106" t="n">
         <v>7500</v>
@@ -5922,10 +5924,8 @@
       <c r="J106" t="n">
         <v>7500</v>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K106" t="n">
+        <v>7500</v>
       </c>
       <c r="L106" t="n">
         <v>7500</v>
@@ -5953,11 +5953,13 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
-      </c>
-      <c r="E107" t="n">
-        <v>5</v>
       </c>
       <c r="F107" t="n">
         <v>5</v>
@@ -5974,10 +5976,8 @@
       <c r="J107" t="n">
         <v>5</v>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K107" t="n">
+        <v>5</v>
       </c>
       <c r="L107" t="n">
         <v>5</v>
@@ -6005,11 +6005,13 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
-      </c>
-      <c r="E108" t="n">
-        <v>3</v>
       </c>
       <c r="F108" t="n">
         <v>3</v>
@@ -6026,10 +6028,8 @@
       <c r="J108" t="n">
         <v>3</v>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K108" t="n">
+        <v>3</v>
       </c>
       <c r="L108" t="n">
         <v>3</v>
@@ -6057,11 +6057,13 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
-      </c>
-      <c r="E109" t="n">
-        <v>2750</v>
       </c>
       <c r="F109" t="n">
         <v>2750</v>
@@ -6078,10 +6080,8 @@
       <c r="J109" t="n">
         <v>2750</v>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K109" t="n">
+        <v>2750</v>
       </c>
       <c r="L109" t="n">
         <v>2750</v>
@@ -6109,11 +6109,13 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>Marketing</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Retail Outlets</t>
         </is>
-      </c>
-      <c r="E110" t="n">
-        <v>700</v>
       </c>
       <c r="F110" t="n">
         <v>700</v>
@@ -6130,10 +6132,8 @@
       <c r="J110" t="n">
         <v>700</v>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Marketing</t>
-        </is>
+      <c r="K110" t="n">
+        <v>700</v>
       </c>
       <c r="L110" t="n">
         <v>700</v>
@@ -6161,12 +6161,14 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
@@ -6182,10 +6184,8 @@
       <c r="J111" t="n">
         <v>0</v>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K111" t="n">
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -6211,11 +6211,13 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>Imagen</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
-      </c>
-      <c r="E112" t="n">
-        <v>70</v>
       </c>
       <c r="F112" t="n">
         <v>70</v>
@@ -6232,10 +6234,8 @@
       <c r="J112" t="n">
         <v>70</v>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Imagen</t>
-        </is>
+      <c r="K112" t="n">
+        <v>70</v>
       </c>
       <c r="L112" t="n">
         <v>70</v>
@@ -6263,11 +6263,13 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
-      </c>
-      <c r="E113" t="n">
-        <v>1275</v>
       </c>
       <c r="F113" t="n">
         <v>1275</v>
@@ -6284,10 +6286,8 @@
       <c r="J113" t="n">
         <v>1275</v>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K113" t="n">
+        <v>1275</v>
       </c>
       <c r="L113" t="n">
         <v>1275</v>
@@ -6315,12 +6315,14 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
           <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
       <c r="F114" t="n">
         <v>0</v>
       </c>
@@ -6336,10 +6338,8 @@
       <c r="J114" t="n">
         <v>0</v>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K114" t="n">
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -6365,11 +6365,13 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>1275</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+        </is>
       </c>
       <c r="F115" t="n">
         <v>1275</v>
@@ -6386,10 +6388,8 @@
       <c r="J115" t="n">
         <v>1275</v>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K115" t="n">
+        <v>1275</v>
       </c>
       <c r="L115" t="n">
         <v>1275</v>
@@ -6417,11 +6417,13 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+        </is>
       </c>
       <c r="F116" t="n">
         <v>0.2</v>
@@ -6438,10 +6440,8 @@
       <c r="J116" t="n">
         <v>0.2</v>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K116" t="n">
+        <v>0.2</v>
       </c>
       <c r="L116" t="n">
         <v>0.2</v>
@@ -6469,11 +6469,13 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>Precio</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Offer Price (max = $40.00)</t>
         </is>
-      </c>
-      <c r="E117" t="n">
-        <v>37</v>
       </c>
       <c r="F117" t="n">
         <v>37</v>
@@ -6490,10 +6492,8 @@
       <c r="J117" t="n">
         <v>37</v>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
+      <c r="K117" t="n">
+        <v>37</v>
       </c>
       <c r="L117" t="n">
         <v>37</v>
@@ -6521,11 +6521,13 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>Calidad</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
           <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
         </is>
-      </c>
-      <c r="E118" t="n">
-        <v>3</v>
       </c>
       <c r="F118" t="n">
         <v>3</v>
@@ -6542,10 +6544,8 @@
       <c r="J118" t="n">
         <v>3</v>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Calidad</t>
-        </is>
+      <c r="K118" t="n">
+        <v>3</v>
       </c>
       <c r="L118" t="n">
         <v>3</v>
@@ -6573,12 +6573,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Pairs Offered (000s)</t>
         </is>
       </c>
-      <c r="E119" t="n">
-        <v>200</v>
-      </c>
       <c r="F119" t="n">
         <v>200</v>
       </c>
@@ -6594,10 +6596,8 @@
       <c r="J119" t="n">
         <v>200</v>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K119" t="n">
+        <v>200</v>
       </c>
       <c r="L119" t="n">
         <v>200</v>
@@ -6625,11 +6625,13 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>200</v>
+          <t>Volumen</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+        </is>
       </c>
       <c r="F120" t="n">
         <v>200</v>
@@ -6646,10 +6648,8 @@
       <c r="J120" t="n">
         <v>200</v>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Volumen</t>
-        </is>
+      <c r="K120" t="n">
+        <v>200</v>
       </c>
       <c r="L120" t="n">
         <v>200</v>
@@ -6677,11 +6677,13 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>0.2</v>
+          <t>Cuota</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Market Share (%)_Privada</t>
+        </is>
       </c>
       <c r="F121" t="n">
         <v>0.2</v>
@@ -6698,10 +6700,8 @@
       <c r="J121" t="n">
         <v>0.2</v>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Cuota</t>
-        </is>
+      <c r="K121" t="n">
+        <v>0.2</v>
       </c>
       <c r="L121" t="n">
         <v>0.2</v>

--- a/data/processed/ci_10.xlsx
+++ b/data/processed/ci_10.xlsx
@@ -516,39 +516,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J2" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="K2" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="L2" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -568,39 +568,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -620,44 +620,46 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -670,39 +672,39 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G5" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -722,39 +724,39 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -774,39 +776,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="G7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="H7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="I7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="J7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="K7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="L7" t="n">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -826,44 +828,46 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Retail Outlets</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -876,39 +880,39 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="H9" t="n">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="I9" t="n">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="J9" t="n">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="K9" t="n">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="L9" t="n">
-        <v>70</v>
+        <v>10000</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -928,46 +932,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -980,39 +982,39 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="G11" t="n">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="H11" t="n">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="I11" t="n">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="J11" t="n">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="K11" t="n">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="L11" t="n">
-        <v>353</v>
+        <v>70</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1032,39 +1034,39 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Internet</t>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>1997</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2</v>
+        <v>1997</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2</v>
+        <v>1997</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2</v>
+        <v>1997</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2</v>
+        <v>1997</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2</v>
+        <v>1997</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2</v>
+        <v>1997</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1084,46 +1086,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1136,39 +1136,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>1997</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1188,39 +1188,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="I15" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="J15" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="K15" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="L15" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1240,39 +1240,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="G16" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="H16" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="I16" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="J16" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="K16" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="L16" t="n">
-        <v>10000</v>
+        <v>67</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1292,39 +1292,39 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1344,39 +1344,39 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1396,46 +1396,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1448,39 +1446,39 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H20" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="J20" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="K20" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="L20" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1500,44 +1498,46 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1550,46 +1550,44 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1602,39 +1600,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1997</v>
+        <v>70</v>
       </c>
       <c r="G23" t="n">
-        <v>1997</v>
+        <v>70</v>
       </c>
       <c r="H23" t="n">
-        <v>1997</v>
+        <v>70</v>
       </c>
       <c r="I23" t="n">
-        <v>1997</v>
+        <v>70</v>
       </c>
       <c r="J23" t="n">
-        <v>1997</v>
+        <v>70</v>
       </c>
       <c r="K23" t="n">
-        <v>1997</v>
+        <v>70</v>
       </c>
       <c r="L23" t="n">
-        <v>1997</v>
+        <v>70</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1654,44 +1652,46 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1704,39 +1704,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1997</v>
+        <v>353</v>
       </c>
       <c r="G25" t="n">
-        <v>1997</v>
+        <v>353</v>
       </c>
       <c r="H25" t="n">
-        <v>1997</v>
+        <v>353</v>
       </c>
       <c r="I25" t="n">
-        <v>1997</v>
+        <v>353</v>
       </c>
       <c r="J25" t="n">
-        <v>1997</v>
+        <v>353</v>
       </c>
       <c r="K25" t="n">
-        <v>1997</v>
+        <v>353</v>
       </c>
       <c r="L25" t="n">
-        <v>1997</v>
+        <v>353</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1808,12 +1808,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1860,12 +1860,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1964,17 +1964,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2016,17 +2016,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Privada</t>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2068,39 +2068,39 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G32" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H32" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="I32" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J32" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K32" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L32" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2120,39 +2120,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="I33" t="n">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>4500</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2172,44 +2172,46 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2222,39 +2224,39 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2274,39 +2276,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2326,39 +2328,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="G37" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="H37" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="I37" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="J37" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="K37" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="L37" t="n">
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2378,44 +2380,46 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Retail Outlets</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2428,39 +2432,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="G39" t="n">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="H39" t="n">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="I39" t="n">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="J39" t="n">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="K39" t="n">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="L39" t="n">
-        <v>70</v>
+        <v>9000</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2480,46 +2484,44 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2532,39 +2534,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="G41" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H41" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="I41" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="J41" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="K41" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="L41" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2584,39 +2586,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Internet</t>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.2</v>
+        <v>1700</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2</v>
+        <v>1700</v>
       </c>
       <c r="H42" t="n">
-        <v>0.2</v>
+        <v>1700</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2</v>
+        <v>1700</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2</v>
+        <v>1700</v>
       </c>
       <c r="K42" t="n">
-        <v>0.2</v>
+        <v>1700</v>
       </c>
       <c r="L42" t="n">
-        <v>0.2</v>
+        <v>1700</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -2636,46 +2638,44 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2688,39 +2688,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="G44" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2740,39 +2740,39 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="G45" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="H45" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="I45" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="J45" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="K45" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="L45" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2792,39 +2792,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="G46" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="H46" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="I46" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="J46" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="K46" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="L46" t="n">
-        <v>9000</v>
+        <v>72</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2844,39 +2844,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2896,39 +2896,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2948,46 +2948,44 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3000,39 +2998,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="G50" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="H50" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="I50" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="J50" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="K50" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="L50" t="n">
-        <v>1000</v>
+        <v>4500</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3052,44 +3050,46 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3102,46 +3102,44 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="N52" t="n">
-        <v>0</v>
-      </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3154,39 +3152,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1700</v>
+        <v>70</v>
       </c>
       <c r="G53" t="n">
-        <v>1700</v>
+        <v>70</v>
       </c>
       <c r="H53" t="n">
-        <v>1700</v>
+        <v>70</v>
       </c>
       <c r="I53" t="n">
-        <v>1700</v>
+        <v>70</v>
       </c>
       <c r="J53" t="n">
-        <v>1700</v>
+        <v>70</v>
       </c>
       <c r="K53" t="n">
-        <v>1700</v>
+        <v>70</v>
       </c>
       <c r="L53" t="n">
-        <v>1700</v>
+        <v>70</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3206,44 +3204,46 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3256,39 +3256,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="G55" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="H55" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="I55" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="J55" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="K55" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="L55" t="n">
-        <v>1700</v>
+        <v>300</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3308,17 +3308,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3360,12 +3360,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3464,12 +3464,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3516,17 +3516,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -3568,17 +3568,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Privada</t>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -3620,39 +3620,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="G62" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H62" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I62" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J62" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="K62" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="L62" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -3672,39 +3672,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="H63" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3724,44 +3724,46 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3774,39 +3776,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="H65" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="K65" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="L65" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3826,39 +3828,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I66" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -3878,39 +3880,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>8000</v>
+        <v>2750</v>
       </c>
       <c r="G67" t="n">
-        <v>8000</v>
+        <v>2750</v>
       </c>
       <c r="H67" t="n">
-        <v>8000</v>
+        <v>2750</v>
       </c>
       <c r="I67" t="n">
-        <v>8000</v>
+        <v>2750</v>
       </c>
       <c r="J67" t="n">
-        <v>8000</v>
+        <v>2750</v>
       </c>
       <c r="K67" t="n">
-        <v>8000</v>
+        <v>2750</v>
       </c>
       <c r="L67" t="n">
-        <v>8000</v>
+        <v>2750</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -3930,44 +3932,46 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Retail Outlets</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
       </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3980,39 +3984,39 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="G69" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="H69" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="I69" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="J69" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="K69" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="L69" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4032,46 +4036,44 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
-      <c r="N70" t="n">
-        <v>0</v>
-      </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4084,39 +4086,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="G71" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="H71" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="I71" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="J71" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="K71" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="L71" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4136,39 +4138,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Internet</t>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="G72" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="J72" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="K72" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="L72" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4188,46 +4190,44 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
-      <c r="N73" t="n">
-        <v>0</v>
-      </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4240,39 +4240,39 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="I74" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="J74" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -4292,39 +4292,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="G75" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="H75" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="I75" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="J75" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="K75" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="L75" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4344,39 +4344,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>8000</v>
+        <v>67</v>
       </c>
       <c r="G76" t="n">
-        <v>8000</v>
+        <v>67</v>
       </c>
       <c r="H76" t="n">
-        <v>8000</v>
+        <v>67</v>
       </c>
       <c r="I76" t="n">
-        <v>8000</v>
+        <v>67</v>
       </c>
       <c r="J76" t="n">
-        <v>8000</v>
+        <v>67</v>
       </c>
       <c r="K76" t="n">
-        <v>8000</v>
+        <v>67</v>
       </c>
       <c r="L76" t="n">
-        <v>8000</v>
+        <v>67</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -4396,39 +4396,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4448,39 +4448,39 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J78" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="L78" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4500,46 +4500,44 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4552,39 +4550,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="G80" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="H80" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="I80" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="J80" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="K80" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="L80" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -4604,44 +4602,46 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
       </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4654,46 +4654,44 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
-      <c r="N82" t="n">
-        <v>0</v>
-      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4706,39 +4704,39 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="G83" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="H83" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="I83" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="J83" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="K83" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="L83" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4758,44 +4756,46 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4808,39 +4808,39 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="G85" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="H85" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="I85" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="J85" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="K85" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="L85" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4860,17 +4860,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4912,12 +4912,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4964,12 +4964,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5016,12 +5016,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5068,17 +5068,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -5120,17 +5120,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Privada</t>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -5172,39 +5172,39 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="G92" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="H92" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="I92" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="J92" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K92" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="L92" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -5224,39 +5224,39 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G93" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="H93" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="I93" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="J93" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="K93" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="L93" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -5276,44 +5276,46 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
       </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5326,39 +5328,39 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="G95" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="H95" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="K95" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="L95" t="n">
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -5378,39 +5380,39 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G96" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="H96" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I96" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="J96" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="K96" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="L96" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -5430,39 +5432,39 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="G97" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="H97" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="I97" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="J97" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="K97" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="L97" t="n">
-        <v>7500</v>
+        <v>2750</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -5482,44 +5484,46 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Retail Outlets</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5532,39 +5536,39 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="G99" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="H99" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="I99" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="J99" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="K99" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="L99" t="n">
-        <v>70</v>
+        <v>7500</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5584,46 +5588,44 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
-      <c r="N100" t="n">
-        <v>0</v>
-      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5636,39 +5638,39 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Internet</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="G101" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="H101" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="I101" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="J101" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="K101" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="L101" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -5688,39 +5690,39 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Internet</t>
+          <t xml:space="preserve"> Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="H102" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="I102" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="J102" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="K102" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -5740,46 +5742,44 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
-      <c r="N103" t="n">
-        <v>0</v>
-      </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5792,39 +5792,39 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="I104" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="J104" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="K104" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="L104" t="n">
-        <v>4</v>
+        <v>1275</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -5844,39 +5844,39 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="G105" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="H105" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="I105" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="J105" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="K105" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="L105" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -5896,39 +5896,39 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t xml:space="preserve"> Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>7500</v>
+        <v>72</v>
       </c>
       <c r="G106" t="n">
-        <v>7500</v>
+        <v>72</v>
       </c>
       <c r="H106" t="n">
-        <v>7500</v>
+        <v>72</v>
       </c>
       <c r="I106" t="n">
-        <v>7500</v>
+        <v>72</v>
       </c>
       <c r="J106" t="n">
-        <v>7500</v>
+        <v>72</v>
       </c>
       <c r="K106" t="n">
-        <v>7500</v>
+        <v>72</v>
       </c>
       <c r="L106" t="n">
-        <v>7500</v>
+        <v>72</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -5948,39 +5948,39 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L107" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6000,39 +6000,39 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t xml:space="preserve"> Model Availability</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="K108" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="L108" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -6052,46 +6052,44 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>C - Marketing</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t xml:space="preserve"> Free Shipping</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>2750</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6104,39 +6102,39 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="G110" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="H110" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="I110" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="J110" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="K110" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="L110" t="n">
-        <v>700</v>
+        <v>4000</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -6156,44 +6154,46 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t xml:space="preserve"> Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6206,46 +6206,44 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Imagen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t xml:space="preserve"> Celebrity Appeal</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6258,39 +6256,39 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>D - Imagen</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="G113" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="H113" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="I113" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="J113" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="K113" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="L113" t="n">
-        <v>1275</v>
+        <v>70</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -6310,44 +6308,46 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t xml:space="preserve"> Online Orders (000s)</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6360,39 +6360,39 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Mayorista</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="H115" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="I115" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="J115" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="K115" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="L115" t="n">
-        <v>1275</v>
+        <v>225</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -6412,17 +6412,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Mayorista</t>
+          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -6464,12 +6464,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Precio</t>
+          <t>A - Precio</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6516,12 +6516,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Calidad</t>
+          <t>B - Calidad</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6568,12 +6568,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6620,17 +6620,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Volumen</t>
+          <t>E - Volumen</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_Privada</t>
+          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -6672,17 +6672,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Privada</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Cuota</t>
+          <t>F - Cuota</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_Privada</t>
+          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
         </is>
       </c>
       <c r="F121" t="n">

--- a/data/processed/ci_10.xlsx
+++ b/data/processed/ci_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,34 +521,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>85871</v>
       </c>
       <c r="G2" t="n">
-        <v>48</v>
+        <v>85871</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>85871</v>
       </c>
       <c r="I2" t="n">
-        <v>48</v>
+        <v>85871</v>
       </c>
       <c r="J2" t="n">
-        <v>48</v>
+        <v>85871</v>
       </c>
       <c r="K2" t="n">
-        <v>48</v>
+        <v>85871</v>
       </c>
       <c r="L2" t="n">
-        <v>48</v>
+        <v>85871</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -573,12 +573,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -625,34 +625,34 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -677,34 +677,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="J5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="K5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="L5" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -729,41 +729,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -781,34 +779,34 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4000</v>
+        <v>1997</v>
       </c>
       <c r="G7" t="n">
-        <v>4000</v>
+        <v>1997</v>
       </c>
       <c r="H7" t="n">
-        <v>4000</v>
+        <v>1997</v>
       </c>
       <c r="I7" t="n">
-        <v>4000</v>
+        <v>1997</v>
       </c>
       <c r="J7" t="n">
-        <v>4000</v>
+        <v>1997</v>
       </c>
       <c r="K7" t="n">
-        <v>4000</v>
+        <v>1997</v>
       </c>
       <c r="L7" t="n">
-        <v>4000</v>
+        <v>1997</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -833,34 +831,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="H8" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="J8" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="L8" t="n">
-        <v>1000</v>
+        <v>1997</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -885,34 +883,34 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="H9" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="J9" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="K9" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>10000</v>
+        <v>0.2</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -937,39 +935,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -987,34 +987,34 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1039,34 +1039,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1997</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>1997</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>1997</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1997</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1997</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>1997</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>1997</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1091,39 +1091,41 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1141,34 +1143,34 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1997</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="n">
-        <v>1997</v>
+        <v>4000</v>
       </c>
       <c r="H14" t="n">
-        <v>1997</v>
+        <v>4000</v>
       </c>
       <c r="I14" t="n">
-        <v>1997</v>
+        <v>4000</v>
       </c>
       <c r="J14" t="n">
-        <v>1997</v>
+        <v>4000</v>
       </c>
       <c r="K14" t="n">
-        <v>1997</v>
+        <v>4000</v>
       </c>
       <c r="L14" t="n">
-        <v>1997</v>
+        <v>4000</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1193,34 +1195,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1240,39 +1242,39 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L16" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1292,46 +1294,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1349,34 +1349,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>200</v>
+        <v>23651</v>
       </c>
       <c r="G18" t="n">
-        <v>200</v>
+        <v>23651</v>
       </c>
       <c r="H18" t="n">
-        <v>200</v>
+        <v>23651</v>
       </c>
       <c r="I18" t="n">
-        <v>200</v>
+        <v>23651</v>
       </c>
       <c r="J18" t="n">
-        <v>200</v>
+        <v>23651</v>
       </c>
       <c r="K18" t="n">
-        <v>200</v>
+        <v>23651</v>
       </c>
       <c r="L18" t="n">
-        <v>200</v>
+        <v>23651</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1401,39 +1401,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1451,34 +1453,34 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="G20" t="n">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="H20" t="n">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="I20" t="n">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="J20" t="n">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="K20" t="n">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="L20" t="n">
-        <v>5000</v>
+        <v>353</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1503,34 +1505,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>353</v>
       </c>
       <c r="G21" t="n">
-        <v>10000</v>
+        <v>353</v>
       </c>
       <c r="H21" t="n">
-        <v>10000</v>
+        <v>353</v>
       </c>
       <c r="I21" t="n">
-        <v>10000</v>
+        <v>353</v>
       </c>
       <c r="J21" t="n">
-        <v>10000</v>
+        <v>353</v>
       </c>
       <c r="K21" t="n">
-        <v>10000</v>
+        <v>353</v>
       </c>
       <c r="L21" t="n">
-        <v>10000</v>
+        <v>353</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1555,39 +1557,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1605,34 +1609,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="H23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="I23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="J23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L23" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -1657,34 +1661,34 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="H24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>353</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1709,41 +1713,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1761,34 +1763,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2</v>
+        <v>10000</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1808,39 +1810,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="G27" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H27" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I27" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="J27" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="K27" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="L27" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1860,46 +1862,44 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1912,39 +1912,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="G29" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="H29" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="I29" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="J29" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="K29" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="L29" t="n">
-        <v>200</v>
+        <v>5000</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1969,34 +1969,34 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="G30" t="n">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="H30" t="n">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="I30" t="n">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="J30" t="n">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="K30" t="n">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="L30" t="n">
-        <v>200</v>
+        <v>6400</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2021,34 +2021,34 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="I31" t="n">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2</v>
+        <v>32</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2063,44 +2063,44 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="G32" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="H32" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="I32" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="J32" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="K32" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="L32" t="n">
-        <v>53</v>
+        <v>200</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2115,44 +2115,44 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2167,44 +2167,44 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2219,44 +2219,44 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Europe-Africa</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G35" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="K35" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2281,34 +2281,34 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>81600</v>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>81600</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>81600</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>81600</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>81600</v>
       </c>
       <c r="K36" t="n">
-        <v>3</v>
+        <v>81600</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>81600</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -2333,34 +2333,34 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G37" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="H37" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="K37" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2385,34 +2385,34 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="G38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="H38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="I38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="J38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="K38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="L38" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2437,34 +2437,34 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>9000</v>
+        <v>53</v>
       </c>
       <c r="G39" t="n">
-        <v>9000</v>
+        <v>53</v>
       </c>
       <c r="H39" t="n">
-        <v>9000</v>
+        <v>53</v>
       </c>
       <c r="I39" t="n">
-        <v>9000</v>
+        <v>53</v>
       </c>
       <c r="J39" t="n">
-        <v>9000</v>
+        <v>53</v>
       </c>
       <c r="K39" t="n">
-        <v>9000</v>
+        <v>53</v>
       </c>
       <c r="L39" t="n">
-        <v>9000</v>
+        <v>53</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -2489,12 +2489,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2539,34 +2539,34 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>70</v>
+        <v>1700</v>
       </c>
       <c r="G41" t="n">
-        <v>70</v>
+        <v>1700</v>
       </c>
       <c r="H41" t="n">
-        <v>70</v>
+        <v>1700</v>
       </c>
       <c r="I41" t="n">
-        <v>70</v>
+        <v>1700</v>
       </c>
       <c r="J41" t="n">
-        <v>70</v>
+        <v>1700</v>
       </c>
       <c r="K41" t="n">
-        <v>70</v>
+        <v>1700</v>
       </c>
       <c r="L41" t="n">
-        <v>70</v>
+        <v>1700</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2591,12 +2591,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2643,39 +2643,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2693,34 +2695,34 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="H44" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="I44" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="J44" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="K44" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="L44" t="n">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2745,34 +2747,34 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="H45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2792,39 +2794,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2844,39 +2846,39 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="G47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -2896,39 +2898,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="G48" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="H48" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="I48" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="J48" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="K48" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="L48" t="n">
-        <v>200</v>
+        <v>4000</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2948,44 +2950,46 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2998,39 +3002,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>4500</v>
+        <v>70</v>
       </c>
       <c r="G50" t="n">
-        <v>4500</v>
+        <v>70</v>
       </c>
       <c r="H50" t="n">
-        <v>4500</v>
+        <v>70</v>
       </c>
       <c r="I50" t="n">
-        <v>4500</v>
+        <v>70</v>
       </c>
       <c r="J50" t="n">
-        <v>4500</v>
+        <v>70</v>
       </c>
       <c r="K50" t="n">
-        <v>4500</v>
+        <v>70</v>
       </c>
       <c r="L50" t="n">
-        <v>4500</v>
+        <v>70</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3050,46 +3054,44 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="N51" t="n">
-        <v>0</v>
-      </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3107,39 +3109,41 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>21600</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3157,34 +3161,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G53" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H53" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I53" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J53" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K53" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L53" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3209,12 +3213,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -3261,12 +3265,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3313,12 +3317,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3360,39 +3364,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="G57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="H57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="I57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="J57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="K57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="L57" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -3412,39 +3416,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3464,46 +3468,44 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3516,39 +3518,39 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G60" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="H60" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="I60" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="J60" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="K60" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="L60" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3568,39 +3570,39 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="K61" t="n">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="L61" t="n">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -3615,51 +3617,49 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3667,44 +3667,44 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="J63" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="L63" t="n">
-        <v>5</v>
+        <v>4500</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3719,44 +3719,44 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>4</v>
+        <v>7400</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>7400</v>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>7400</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>7400</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>7400</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>7400</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>7400</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3771,44 +3771,44 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="G65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="H65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="I65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="J65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="K65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="L65" t="n">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3823,44 +3823,44 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -3875,44 +3875,44 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2750</v>
+        <v>200</v>
       </c>
       <c r="G67" t="n">
-        <v>2750</v>
+        <v>200</v>
       </c>
       <c r="H67" t="n">
-        <v>2750</v>
+        <v>200</v>
       </c>
       <c r="I67" t="n">
-        <v>2750</v>
+        <v>200</v>
       </c>
       <c r="J67" t="n">
-        <v>2750</v>
+        <v>200</v>
       </c>
       <c r="K67" t="n">
-        <v>2750</v>
+        <v>200</v>
       </c>
       <c r="L67" t="n">
-        <v>2750</v>
+        <v>200</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -3927,44 +3927,44 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="G68" t="n">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="H68" t="n">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="J68" t="n">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="K68" t="n">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="L68" t="n">
-        <v>700</v>
+        <v>0.2</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -3979,44 +3979,44 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Asia-Pacifc</t>
+          <t>Europe-Africa</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="G69" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>8000</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4041,39 +4041,41 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>54825</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>54825</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>54825</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>54825</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>54825</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>54825</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>54825</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
       </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4091,34 +4093,34 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="G71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="H71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="I71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="K71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="L71" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4143,34 +4145,34 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="G72" t="n">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="H72" t="n">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="I72" t="n">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="J72" t="n">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="K72" t="n">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="L72" t="n">
-        <v>1275</v>
+        <v>43</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4195,39 +4197,41 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4245,41 +4249,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>1275</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4297,34 +4299,34 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="G75" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="J75" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="K75" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="L75" t="n">
-        <v>0.2</v>
+        <v>1275</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -4344,39 +4346,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>67</v>
+        <v>1275</v>
       </c>
       <c r="G76" t="n">
-        <v>67</v>
+        <v>1275</v>
       </c>
       <c r="H76" t="n">
-        <v>67</v>
+        <v>1275</v>
       </c>
       <c r="I76" t="n">
-        <v>67</v>
+        <v>1275</v>
       </c>
       <c r="J76" t="n">
-        <v>67</v>
+        <v>1275</v>
       </c>
       <c r="K76" t="n">
-        <v>67</v>
+        <v>1275</v>
       </c>
       <c r="L76" t="n">
-        <v>67</v>
+        <v>1275</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -4396,39 +4398,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H77" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4448,17 +4450,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4500,44 +4502,46 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4550,39 +4554,39 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="G80" t="n">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="H80" t="n">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>4000</v>
+        <v>3</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
@@ -4602,39 +4606,39 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="G81" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="H81" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="I81" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="J81" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="K81" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="L81" t="n">
-        <v>8000</v>
+        <v>700</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -4654,44 +4658,46 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>2750</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4704,39 +4710,39 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="G83" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="H83" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="I83" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="J83" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="K83" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="L83" t="n">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4756,39 +4762,39 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="G84" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="H84" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="I84" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="J84" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="K84" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="L84" t="n">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4808,46 +4814,44 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
       </c>
-      <c r="N85" t="n">
-        <v>0</v>
-      </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4865,34 +4869,34 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.2</v>
+        <v>15075</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2</v>
+        <v>15075</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2</v>
+        <v>15075</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2</v>
+        <v>15075</v>
       </c>
       <c r="J86" t="n">
-        <v>0.2</v>
+        <v>15075</v>
       </c>
       <c r="K86" t="n">
-        <v>0.2</v>
+        <v>15075</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2</v>
+        <v>15075</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -4912,39 +4916,39 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>2 - b - Retail Price ($ per pair)</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="G87" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="H87" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I87" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="J87" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="K87" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="L87" t="n">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4964,39 +4968,39 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>2 - c - Online Orders (000s)</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="G88" t="n">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="K88" t="n">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>225</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -5016,39 +5020,39 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>2 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="G89" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="H89" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="I89" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J89" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K89" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L89" t="n">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -5068,39 +5072,39 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="G90" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="H90" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="I90" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="J90" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="K90" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="L90" t="n">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -5120,39 +5124,39 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
+          <t>2 - e - Model Availability</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="G91" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="I91" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="J91" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="K91" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2</v>
+        <v>200</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -5167,44 +5171,44 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wholesale Price ($ per pair)</t>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="G92" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="H92" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="J92" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -5219,51 +5223,49 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rebate Offer ($ per pair)</t>
+          <t>2 - f - Free Shipping</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
-      <c r="N93" t="n">
-        <v>0</v>
-      </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5271,44 +5273,44 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>2 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="G94" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="H94" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="I94" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="K94" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -5323,44 +5325,44 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="G95" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="H95" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="I95" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="J95" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="K95" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="L95" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -5375,51 +5377,49 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Delivery Time (weeks)</t>
+          <t>2 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
       </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5427,44 +5427,44 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retailer Support ($ per outlet)</t>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2750</v>
+        <v>4000</v>
       </c>
       <c r="G97" t="n">
-        <v>2750</v>
+        <v>4000</v>
       </c>
       <c r="H97" t="n">
-        <v>2750</v>
+        <v>4000</v>
       </c>
       <c r="I97" t="n">
-        <v>2750</v>
+        <v>4000</v>
       </c>
       <c r="J97" t="n">
-        <v>2750</v>
+        <v>4000</v>
       </c>
       <c r="K97" t="n">
-        <v>2750</v>
+        <v>4000</v>
       </c>
       <c r="L97" t="n">
-        <v>2750</v>
+        <v>4000</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -5479,44 +5479,44 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Outlets</t>
+          <t>3 - a - Offer Income ($000s)</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="G98" t="n">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="H98" t="n">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="I98" t="n">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="J98" t="n">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="K98" t="n">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="L98" t="n">
-        <v>700</v>
+        <v>6400</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -5531,44 +5531,44 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>3 - b - Offer Price (max = $40.00)</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>7500</v>
+        <v>32</v>
       </c>
       <c r="G99" t="n">
-        <v>7500</v>
+        <v>32</v>
       </c>
       <c r="H99" t="n">
-        <v>7500</v>
+        <v>32</v>
       </c>
       <c r="I99" t="n">
-        <v>7500</v>
+        <v>32</v>
       </c>
       <c r="J99" t="n">
-        <v>7500</v>
+        <v>32</v>
       </c>
       <c r="K99" t="n">
-        <v>7500</v>
+        <v>32</v>
       </c>
       <c r="L99" t="n">
-        <v>7500</v>
+        <v>32</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5583,49 +5583,51 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>3 - c - Pairs Offered (000s)</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
       </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5633,44 +5635,44 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>3 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="H101" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="I101" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="J101" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="K101" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="L101" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -5685,44 +5687,44 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Demanded (000s)</t>
+          <t>3 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1275</v>
+        <v>0.2</v>
       </c>
       <c r="G102" t="n">
-        <v>1275</v>
+        <v>0.2</v>
       </c>
       <c r="H102" t="n">
-        <v>1275</v>
+        <v>0.2</v>
       </c>
       <c r="I102" t="n">
-        <v>1275</v>
+        <v>0.2</v>
       </c>
       <c r="J102" t="n">
-        <v>1275</v>
+        <v>0.2</v>
       </c>
       <c r="K102" t="n">
-        <v>1275</v>
+        <v>0.2</v>
       </c>
       <c r="L102" t="n">
-        <v>1275</v>
+        <v>0.2</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -5737,49 +5739,51 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Latin America</t>
+          <t>Asia-Pacifc</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>1 - Mayorista</t>
+          <t>3 - Privada</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Gained / Lost (due to stockouts)</t>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5797,34 +5801,34 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_1 - Mayorista</t>
+          <t>1 - a - Wholesale Income ($000s)</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1275</v>
+        <v>61200</v>
       </c>
       <c r="G104" t="n">
-        <v>1275</v>
+        <v>61200</v>
       </c>
       <c r="H104" t="n">
-        <v>1275</v>
+        <v>61200</v>
       </c>
       <c r="I104" t="n">
-        <v>1275</v>
+        <v>61200</v>
       </c>
       <c r="J104" t="n">
-        <v>1275</v>
+        <v>61200</v>
       </c>
       <c r="K104" t="n">
-        <v>1275</v>
+        <v>61200</v>
       </c>
       <c r="L104" t="n">
-        <v>1275</v>
+        <v>61200</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
@@ -5849,34 +5853,34 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_1 - Mayorista</t>
+          <t>1 - b - Rebate Offer ($ per pair)</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="H105" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="J105" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="K105" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -5896,39 +5900,39 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Retail Price ($ per pair)</t>
+          <t>1 - b - Wholesale Net Price ($ per pair)</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="G106" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="H106" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="I106" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J106" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="K106" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="L106" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -5948,39 +5952,39 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>b - Precio</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (1 to 10 stars)</t>
+          <t>1 - b - Wholesale Price ($ per pair)</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="G107" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="I107" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="K107" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="L107" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M107" t="n">
         <v>0</v>
@@ -6000,46 +6004,44 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Model Availability</t>
+          <t>1 - c -   Gained / Lost (due to stockouts)</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
       </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6052,44 +6054,46 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>C - Marketing</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Free Shipping</t>
+          <t>1 - c - Pairs Demanded (000s)</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1275</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
       </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6102,39 +6106,39 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>c - Volumen</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Search Engine Advert. ($000s)</t>
+          <t>1 - c - Pairs Sold (000s)</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>4000</v>
+        <v>1275</v>
       </c>
       <c r="G110" t="n">
-        <v>4000</v>
+        <v>1275</v>
       </c>
       <c r="H110" t="n">
-        <v>4000</v>
+        <v>1275</v>
       </c>
       <c r="I110" t="n">
-        <v>4000</v>
+        <v>1275</v>
       </c>
       <c r="J110" t="n">
-        <v>4000</v>
+        <v>1275</v>
       </c>
       <c r="K110" t="n">
-        <v>4000</v>
+        <v>1275</v>
       </c>
       <c r="L110" t="n">
-        <v>4000</v>
+        <v>1275</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -6154,39 +6158,39 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>d - Cuota</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Advertising ($000s)</t>
+          <t>1 - d - Market Share (%)</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>7500</v>
+        <v>0.2</v>
       </c>
       <c r="G111" t="n">
-        <v>7500</v>
+        <v>0.2</v>
       </c>
       <c r="H111" t="n">
-        <v>7500</v>
+        <v>0.2</v>
       </c>
       <c r="I111" t="n">
-        <v>7500</v>
+        <v>0.2</v>
       </c>
       <c r="J111" t="n">
-        <v>7500</v>
+        <v>0.2</v>
       </c>
       <c r="K111" t="n">
-        <v>7500</v>
+        <v>0.2</v>
       </c>
       <c r="L111" t="n">
-        <v>7500</v>
+        <v>0.2</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
@@ -6206,44 +6210,46 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Celebrity Appeal</t>
+          <t>1 - e - Model Availability</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6256,39 +6262,39 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>D - Imagen</t>
+          <t>e - Calidad</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brand Reputation (prior-year image)</t>
+          <t>1 - e - S/Q Rating (1 to 10 stars)</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="G113" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="H113" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="K113" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="L113" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
@@ -6308,39 +6314,39 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Online Orders (000s)</t>
+          <t>1 - f - Delivery Time (weeks)</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="G114" t="n">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="K114" t="n">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="L114" t="n">
-        <v>225</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
@@ -6360,39 +6366,39 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_2 - Internet</t>
+          <t>1 - f - Retail Outlets</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="G115" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="H115" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="I115" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="J115" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="K115" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="L115" t="n">
-        <v>225</v>
+        <v>700</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
@@ -6412,39 +6418,39 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2 - Internet</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>F - Cuota</t>
+          <t>f - Marketing</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Market Share (%)_2 - Internet</t>
+          <t>1 - f - Retailer Support ($ per outlet)</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>0.2</v>
+        <v>2750</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2</v>
+        <v>2750</v>
       </c>
       <c r="H116" t="n">
-        <v>0.2</v>
+        <v>2750</v>
       </c>
       <c r="I116" t="n">
-        <v>0.2</v>
+        <v>2750</v>
       </c>
       <c r="J116" t="n">
-        <v>0.2</v>
+        <v>2750</v>
       </c>
       <c r="K116" t="n">
-        <v>0.2</v>
+        <v>2750</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2</v>
+        <v>2750</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
@@ -6464,39 +6470,39 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>A - Precio</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Offer Price (max = $40.00)</t>
+          <t>1 - g - Brand Advertising ($000s)</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>37</v>
+        <v>7500</v>
       </c>
       <c r="G117" t="n">
-        <v>37</v>
+        <v>7500</v>
       </c>
       <c r="H117" t="n">
-        <v>37</v>
+        <v>7500</v>
       </c>
       <c r="I117" t="n">
-        <v>37</v>
+        <v>7500</v>
       </c>
       <c r="J117" t="n">
-        <v>37</v>
+        <v>7500</v>
       </c>
       <c r="K117" t="n">
-        <v>37</v>
+        <v>7500</v>
       </c>
       <c r="L117" t="n">
-        <v>37</v>
+        <v>7500</v>
       </c>
       <c r="M117" t="n">
         <v>0</v>
@@ -6516,39 +6522,39 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>B - Calidad</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> S/Q Rating (min = 3.0 stars)</t>
+          <t>1 - g - Brand Reputation (prior-year image)</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="J118" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="K118" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -6568,46 +6574,44 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>1 - Mayorista</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>g - Imagen</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Offered (000s)</t>
+          <t>1 - g - Celebrity Appeal</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M119" t="n">
         <v>0</v>
       </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -6620,39 +6624,39 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>3 - Privada</t>
+          <t>2 - Internet</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>E - Volumen</t>
+          <t>a - Ingreso</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pairs Sold (000s)_3 - Privada</t>
+          <t>2 - a - Retail Income ($000s)</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="G120" t="n">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="H120" t="n">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="I120" t="n">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="J120" t="n">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="K120" t="n">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="L120" t="n">
-        <v>200</v>
+        <v>16200</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
@@ -6672,44 +6676,872 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2 - b - Retail Price ($ per pair)</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>72</v>
+      </c>
+      <c r="G121" t="n">
+        <v>72</v>
+      </c>
+      <c r="H121" t="n">
+        <v>72</v>
+      </c>
+      <c r="I121" t="n">
+        <v>72</v>
+      </c>
+      <c r="J121" t="n">
+        <v>72</v>
+      </c>
+      <c r="K121" t="n">
+        <v>72</v>
+      </c>
+      <c r="L121" t="n">
+        <v>72</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2 - c - Online Orders (000s)</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>225</v>
+      </c>
+      <c r="G122" t="n">
+        <v>225</v>
+      </c>
+      <c r="H122" t="n">
+        <v>225</v>
+      </c>
+      <c r="I122" t="n">
+        <v>225</v>
+      </c>
+      <c r="J122" t="n">
+        <v>225</v>
+      </c>
+      <c r="K122" t="n">
+        <v>225</v>
+      </c>
+      <c r="L122" t="n">
+        <v>225</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>225</v>
+      </c>
+      <c r="G123" t="n">
+        <v>225</v>
+      </c>
+      <c r="H123" t="n">
+        <v>225</v>
+      </c>
+      <c r="I123" t="n">
+        <v>225</v>
+      </c>
+      <c r="J123" t="n">
+        <v>225</v>
+      </c>
+      <c r="K123" t="n">
+        <v>225</v>
+      </c>
+      <c r="L123" t="n">
+        <v>225</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2 - e - Model Availability</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>200</v>
+      </c>
+      <c r="G125" t="n">
+        <v>200</v>
+      </c>
+      <c r="H125" t="n">
+        <v>200</v>
+      </c>
+      <c r="I125" t="n">
+        <v>200</v>
+      </c>
+      <c r="J125" t="n">
+        <v>200</v>
+      </c>
+      <c r="K125" t="n">
+        <v>200</v>
+      </c>
+      <c r="L125" t="n">
+        <v>200</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2 - e - S/Q Rating (1 to 10 stars)</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>4</v>
+      </c>
+      <c r="G126" t="n">
+        <v>4</v>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+      <c r="I126" t="n">
+        <v>4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>4</v>
+      </c>
+      <c r="L126" t="n">
+        <v>4</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>10</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>f - Marketing</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2 - f - Free Shipping</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>10</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Advertising ($000s)</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="G128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="J128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="K128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="L128" t="n">
+        <v>7500</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2 - g - Brand Reputation (prior-year image)</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>70</v>
+      </c>
+      <c r="G129" t="n">
+        <v>70</v>
+      </c>
+      <c r="H129" t="n">
+        <v>70</v>
+      </c>
+      <c r="I129" t="n">
+        <v>70</v>
+      </c>
+      <c r="J129" t="n">
+        <v>70</v>
+      </c>
+      <c r="K129" t="n">
+        <v>70</v>
+      </c>
+      <c r="L129" t="n">
+        <v>70</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2 - g - Celebrity Appeal</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2 - Internet</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>g - Imagen</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2 - g - Search Engine Advert. ($000s)</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="I131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="J131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="K131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>3 - Privada</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>F - Cuota</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Market Share (%)_3 - Privada</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" t="n">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>a - Ingreso</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>3 - a - Offer Income ($000s)</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>7400</v>
+      </c>
+      <c r="G132" t="n">
+        <v>7400</v>
+      </c>
+      <c r="H132" t="n">
+        <v>7400</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7400</v>
+      </c>
+      <c r="J132" t="n">
+        <v>7400</v>
+      </c>
+      <c r="K132" t="n">
+        <v>7400</v>
+      </c>
+      <c r="L132" t="n">
+        <v>7400</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>b - Precio</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>3 - b - Offer Price (max = $40.00)</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>37</v>
+      </c>
+      <c r="G133" t="n">
+        <v>37</v>
+      </c>
+      <c r="H133" t="n">
+        <v>37</v>
+      </c>
+      <c r="I133" t="n">
+        <v>37</v>
+      </c>
+      <c r="J133" t="n">
+        <v>37</v>
+      </c>
+      <c r="K133" t="n">
+        <v>37</v>
+      </c>
+      <c r="L133" t="n">
+        <v>37</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>10</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Offered (000s)</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>200</v>
+      </c>
+      <c r="G134" t="n">
+        <v>200</v>
+      </c>
+      <c r="H134" t="n">
+        <v>200</v>
+      </c>
+      <c r="I134" t="n">
+        <v>200</v>
+      </c>
+      <c r="J134" t="n">
+        <v>200</v>
+      </c>
+      <c r="K134" t="n">
+        <v>200</v>
+      </c>
+      <c r="L134" t="n">
+        <v>200</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>10</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>c - Volumen</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3 - c - Pairs Sold (000s)</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>200</v>
+      </c>
+      <c r="G135" t="n">
+        <v>200</v>
+      </c>
+      <c r="H135" t="n">
+        <v>200</v>
+      </c>
+      <c r="I135" t="n">
+        <v>200</v>
+      </c>
+      <c r="J135" t="n">
+        <v>200</v>
+      </c>
+      <c r="K135" t="n">
+        <v>200</v>
+      </c>
+      <c r="L135" t="n">
+        <v>200</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>10</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>d - Cuota</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>3 - d - Market Share (%)</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>10</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Latin America</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3 - Privada</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>e - Calidad</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>3 - e - S/Q Rating (min = 3.0 stars)</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>3</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>3</v>
+      </c>
+      <c r="K137" t="n">
+        <v>3</v>
+      </c>
+      <c r="L137" t="n">
+        <v>3</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
         <v>0</v>
       </c>
     </row>
